--- a/Homework/Lesson4/checklists(Task6).xlsx
+++ b/Homework/Lesson4/checklists(Task6).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>1)check airports</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Check all field</t>
-  </si>
-  <si>
-    <t>Check all key</t>
   </si>
   <si>
     <t>true</t>
@@ -461,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -483,10 +480,10 @@
         <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -497,7 +494,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -508,7 +505,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -519,13 +516,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -533,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -544,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -558,13 +555,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -572,7 +569,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -580,7 +577,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -591,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -602,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -610,7 +607,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -618,7 +615,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -628,11 +625,11 @@
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>25</v>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -640,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -648,7 +645,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
